--- a/code/Test/第二次训练/B题_眼科病床的合理安排/datas.xlsx
+++ b/code/Test/第二次训练/B题_眼科病床的合理安排/datas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\MCM2020\code\Test\第二次训练\B题_眼科病床的合理安排\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13519732-0A1B-4B9A-A644-2A872DE98829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA69C5-0933-48CD-B369-CE79BD2644F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{525F048B-7C2C-4C91-8140-9C3523900EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="datas" sheetId="1" r:id="rId1"/>
-    <sheet name="future" sheetId="2" r:id="rId2"/>
+    <sheet name="current" sheetId="3" r:id="rId2"/>
+    <sheet name="future" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -85,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -133,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,8 +147,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D499DCEF-D907-42E0-BD82-0674B8966151}">
   <dimension ref="A1:G431"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I440" sqref="I440"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="J315" sqref="J315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8535,1823 +8539,6 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>1</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C352" s="2">
-        <v>39675</v>
-      </c>
-      <c r="D352" s="2">
-        <v>39689</v>
-      </c>
-      <c r="E352" s="2">
-        <v>39691</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>2</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C353" s="2">
-        <v>39676</v>
-      </c>
-      <c r="D353" s="2">
-        <v>39689</v>
-      </c>
-      <c r="E353" s="2">
-        <v>39691</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>3</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C354" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D354" s="2">
-        <v>39692</v>
-      </c>
-      <c r="E354" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F354" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
-        <v>4</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C355" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D355" s="2">
-        <v>39692</v>
-      </c>
-      <c r="E355" s="2">
-        <v>39695</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
-        <v>5</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C356" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D356" s="2">
-        <v>39692</v>
-      </c>
-      <c r="E356" s="2">
-        <v>39695</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
-        <v>6</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C357" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D357" s="2">
-        <v>39692</v>
-      </c>
-      <c r="E357" s="2">
-        <v>39695</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
-        <v>7</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C358" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D358" s="2">
-        <v>39692</v>
-      </c>
-      <c r="E358" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F358" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
-        <v>8</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C359" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D359" s="2">
-        <v>39693</v>
-      </c>
-      <c r="E359" s="2">
-        <v>39695</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
-        <v>9</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C360" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D360" s="2">
-        <v>39694</v>
-      </c>
-      <c r="E360" s="2">
-        <v>39696</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
-        <v>10</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C361" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D361" s="2">
-        <v>39694</v>
-      </c>
-      <c r="E361" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F361" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
-        <v>11</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C362" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D362" s="2">
-        <v>39694</v>
-      </c>
-      <c r="E362" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F362" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G362" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
-        <v>12</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C363" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D363" s="2">
-        <v>39694</v>
-      </c>
-      <c r="E363" s="2">
-        <v>39696</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
-        <v>13</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C364" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D364" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E364" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
-        <v>14</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C365" s="2">
-        <v>39679</v>
-      </c>
-      <c r="D365" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E365" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G365" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>15</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C366" s="2">
-        <v>39680</v>
-      </c>
-      <c r="D366" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E366" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
-        <v>16</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C367" s="2">
-        <v>39680</v>
-      </c>
-      <c r="D367" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E367" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G367" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
-        <v>17</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C368" s="2">
-        <v>39680</v>
-      </c>
-      <c r="D368" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E368" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
-        <v>18</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C369" s="2">
-        <v>39680</v>
-      </c>
-      <c r="D369" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E369" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
-        <v>19</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C370" s="2">
-        <v>39680</v>
-      </c>
-      <c r="D370" s="2">
-        <v>39695</v>
-      </c>
-      <c r="E370" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F370" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G370" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>20</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C371" s="2">
-        <v>39681</v>
-      </c>
-      <c r="D371" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E371" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>21</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C372" s="2">
-        <v>39682</v>
-      </c>
-      <c r="D372" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E372" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F372" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>22</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C373" s="2">
-        <v>39682</v>
-      </c>
-      <c r="D373" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E373" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F373" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G373" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>23</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C374" s="2">
-        <v>39682</v>
-      </c>
-      <c r="D374" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E374" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>24</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C375" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D375" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E375" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>25</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C376" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D376" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E376" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G376" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>26</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C377" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D377" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E377" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F377" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G377" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>27</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C378" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D378" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E378" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
-        <v>28</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C379" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D379" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E379" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F379" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G379" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>29</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C380" s="2">
-        <v>39683</v>
-      </c>
-      <c r="D380" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E380" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F380" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G380" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
-        <v>30</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C381" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D381" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E381" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G381" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>31</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C382" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D382" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E382" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G382" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
-        <v>32</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C383" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D383" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E383" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F383" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>33</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C384" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D384" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E384" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G384" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
-        <v>34</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C385" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D385" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E385" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G385" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>35</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C386" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D386" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E386" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F386" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G386" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
-        <v>36</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C387" s="2">
-        <v>39684</v>
-      </c>
-      <c r="D387" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E387" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G387" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
-        <v>37</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C388" s="2">
-        <v>39685</v>
-      </c>
-      <c r="D388" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E388" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
-        <v>38</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C389" s="2">
-        <v>39685</v>
-      </c>
-      <c r="D389" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E389" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
-        <v>39</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C390" s="2">
-        <v>39685</v>
-      </c>
-      <c r="D390" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E390" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G390" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
-        <v>40</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C391" s="2">
-        <v>39685</v>
-      </c>
-      <c r="D391" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E391" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F391" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>41</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C392" s="2">
-        <v>39685</v>
-      </c>
-      <c r="D392" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E392" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F392" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G392" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
-        <v>42</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C393" s="2">
-        <v>39686</v>
-      </c>
-      <c r="D393" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E393" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>43</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C394" s="2">
-        <v>39686</v>
-      </c>
-      <c r="D394" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E394" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
-        <v>44</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C395" s="2">
-        <v>39686</v>
-      </c>
-      <c r="D395" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E395" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F395" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G395" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>45</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C396" s="2">
-        <v>39686</v>
-      </c>
-      <c r="D396" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E396" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G396" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
-        <v>46</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C397" s="2">
-        <v>39687</v>
-      </c>
-      <c r="D397" s="2">
-        <v>39699</v>
-      </c>
-      <c r="E397" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G397" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
-        <v>47</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C398" s="2">
-        <v>39687</v>
-      </c>
-      <c r="D398" s="2">
-        <v>39699</v>
-      </c>
-      <c r="E398" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G398" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
-        <v>48</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C399" s="2">
-        <v>39687</v>
-      </c>
-      <c r="D399" s="2">
-        <v>39699</v>
-      </c>
-      <c r="E399" s="2">
-        <v>39701</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G399" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>49</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C400" s="2">
-        <v>39687</v>
-      </c>
-      <c r="D400" s="2">
-        <v>39699</v>
-      </c>
-      <c r="E400" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G400" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
-        <v>50</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C401" s="2">
-        <v>39687</v>
-      </c>
-      <c r="D401" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E401" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F401" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G401" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>51</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C402" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D402" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E402" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G402" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
-        <v>52</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C403" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D403" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E403" s="2">
-        <v>39701</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G403" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>53</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C404" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D404" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E404" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F404" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G404" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>54</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C405" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D405" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E405" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>55</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C406" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D406" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E406" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>56</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C407" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D407" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E407" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G407" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
-        <v>57</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C408" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D408" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E408" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F408" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
-        <v>58</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C409" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D409" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E409" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F409" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
-        <v>59</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C410" s="2">
-        <v>39688</v>
-      </c>
-      <c r="D410" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E410" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>60</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C411" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D411" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E411" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F411" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G411" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>61</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C412" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D412" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E412" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
-        <v>62</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C413" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D413" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E413" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>63</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C414" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D414" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E414" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F414" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
-        <v>64</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C415" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D415" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E415" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
-        <v>65</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C416" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D416" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E416" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G416" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>66</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C417" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D417" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E417" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F417" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G417" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
-        <v>67</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C418" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D418" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E418" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>68</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C419" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D419" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E419" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F419" s="2">
-        <v>39708</v>
-      </c>
-      <c r="G419" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>69</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C420" s="2">
-        <v>39690</v>
-      </c>
-      <c r="D420" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E420" s="2">
-        <v>39704</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G420" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>70</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C421" s="2">
-        <v>39690</v>
-      </c>
-      <c r="D421" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E421" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F421" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G421" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>71</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C422" s="2">
-        <v>39690</v>
-      </c>
-      <c r="D422" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E422" s="2">
-        <v>39704</v>
-      </c>
-      <c r="F422" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G422" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
-        <v>72</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C423" s="2">
-        <v>39695</v>
-      </c>
-      <c r="D423" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E423" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G423" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>73</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C424" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D424" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E424" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F424" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G424" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
-        <v>74</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C425" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D425" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E425" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G425" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>75</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C426" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D426" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E426" s="2">
-        <v>39698</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>76</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="2">
-        <v>39697</v>
-      </c>
-      <c r="D427" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E427" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G427" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>77</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C428" s="2">
-        <v>39699</v>
-      </c>
-      <c r="D428" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E428" s="2">
-        <v>39701</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
-        <v>78</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C429" s="2">
-        <v>39700</v>
-      </c>
-      <c r="D429" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E429" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>79</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C430" s="2">
-        <v>39700</v>
-      </c>
-      <c r="D430" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E430" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
@@ -10369,10 +8556,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC5D016-55A8-4CA4-A186-C3D4036C0ECC}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="6" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4">
+        <v>39675</v>
+      </c>
+      <c r="D1" s="4">
+        <v>39689</v>
+      </c>
+      <c r="E1" s="4">
+        <v>39691</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>39676</v>
+      </c>
+      <c r="D2" s="4">
+        <v>39689</v>
+      </c>
+      <c r="E2" s="4">
+        <v>39691</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D3" s="4">
+        <v>39692</v>
+      </c>
+      <c r="E3" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F3" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D4" s="4">
+        <v>39692</v>
+      </c>
+      <c r="E4" s="4">
+        <v>39695</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D5" s="4">
+        <v>39692</v>
+      </c>
+      <c r="E5" s="4">
+        <v>39695</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D6" s="4">
+        <v>39692</v>
+      </c>
+      <c r="E6" s="4">
+        <v>39695</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D7" s="4">
+        <v>39692</v>
+      </c>
+      <c r="E7" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F7" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39693</v>
+      </c>
+      <c r="E8" s="4">
+        <v>39695</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D9" s="4">
+        <v>39694</v>
+      </c>
+      <c r="E9" s="4">
+        <v>39696</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D10" s="4">
+        <v>39694</v>
+      </c>
+      <c r="E10" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F10" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D11" s="4">
+        <v>39694</v>
+      </c>
+      <c r="E11" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F11" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D12" s="4">
+        <v>39694</v>
+      </c>
+      <c r="E12" s="4">
+        <v>39696</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E13" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39679</v>
+      </c>
+      <c r="D14" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E14" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>39680</v>
+      </c>
+      <c r="D15" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E15" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>39680</v>
+      </c>
+      <c r="D16" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E16" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>39680</v>
+      </c>
+      <c r="D17" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E17" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39680</v>
+      </c>
+      <c r="D18" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E18" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>39680</v>
+      </c>
+      <c r="D19" s="4">
+        <v>39695</v>
+      </c>
+      <c r="E19" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F19" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>39681</v>
+      </c>
+      <c r="D20" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E20" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
+        <v>39682</v>
+      </c>
+      <c r="D21" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E21" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F21" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>39682</v>
+      </c>
+      <c r="D22" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E22" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F22" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>39682</v>
+      </c>
+      <c r="D23" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E23" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D24" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E24" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D25" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E25" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D26" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E26" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F26" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D27" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E27" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D28" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E28" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F28" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4">
+        <v>39683</v>
+      </c>
+      <c r="D29" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E29" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F29" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D30" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E30" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D31" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E31" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D32" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E32" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F32" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D33" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E33" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D34" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E34" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D35" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E35" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F35" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>39684</v>
+      </c>
+      <c r="D36" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E36" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4">
+        <v>39685</v>
+      </c>
+      <c r="D37" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E37" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4">
+        <v>39685</v>
+      </c>
+      <c r="D38" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E38" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <v>39685</v>
+      </c>
+      <c r="D39" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E39" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4">
+        <v>39685</v>
+      </c>
+      <c r="D40" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E40" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F40" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>39685</v>
+      </c>
+      <c r="D41" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E41" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F41" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39686</v>
+      </c>
+      <c r="D42" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E42" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>39686</v>
+      </c>
+      <c r="D43" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E43" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <v>39686</v>
+      </c>
+      <c r="D44" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E44" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F44" s="4">
+        <v>39701</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4">
+        <v>39686</v>
+      </c>
+      <c r="D45" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E45" s="4">
+        <v>39700</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4">
+        <v>39687</v>
+      </c>
+      <c r="D46" s="4">
+        <v>39699</v>
+      </c>
+      <c r="E46" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
+        <v>39687</v>
+      </c>
+      <c r="D47" s="4">
+        <v>39699</v>
+      </c>
+      <c r="E47" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4">
+        <v>39687</v>
+      </c>
+      <c r="D48" s="4">
+        <v>39699</v>
+      </c>
+      <c r="E48" s="4">
+        <v>39701</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4">
+        <v>39687</v>
+      </c>
+      <c r="D49" s="4">
+        <v>39699</v>
+      </c>
+      <c r="E49" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39687</v>
+      </c>
+      <c r="D50" s="4">
+        <v>39700</v>
+      </c>
+      <c r="E50" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F50" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D51" s="4">
+        <v>39700</v>
+      </c>
+      <c r="E51" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D52" s="4">
+        <v>39700</v>
+      </c>
+      <c r="E52" s="4">
+        <v>39701</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D53" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E53" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F53" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D54" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E54" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D55" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E55" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D56" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E56" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D57" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E57" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F57" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D58" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E58" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F58" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>39688</v>
+      </c>
+      <c r="D59" s="4">
+        <v>39700</v>
+      </c>
+      <c r="E59" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D60" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E60" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D61" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E61" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D62" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E62" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D63" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E63" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F63" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D64" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E64" s="4">
+        <v>39703</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D65" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E65" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D66" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E66" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F66" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D67" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E67" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4">
+        <v>39689</v>
+      </c>
+      <c r="D68" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E68" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F68" s="4">
+        <v>39708</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="4">
+        <v>39690</v>
+      </c>
+      <c r="D69" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E69" s="4">
+        <v>39704</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4">
+        <v>39690</v>
+      </c>
+      <c r="D70" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E70" s="4">
+        <v>39706</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="4">
+        <v>39690</v>
+      </c>
+      <c r="D71" s="4">
+        <v>39702</v>
+      </c>
+      <c r="E71" s="4">
+        <v>39704</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4">
+        <v>39695</v>
+      </c>
+      <c r="D72" s="4">
+        <v>39696</v>
+      </c>
+      <c r="E72" s="4">
+        <v>39697</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4">
+        <v>39696</v>
+      </c>
+      <c r="D73" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E73" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="4">
+        <v>39696</v>
+      </c>
+      <c r="D74" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E74" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4">
+        <v>39696</v>
+      </c>
+      <c r="D75" s="4">
+        <v>39697</v>
+      </c>
+      <c r="E75" s="4">
+        <v>39698</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4">
+        <v>39697</v>
+      </c>
+      <c r="D76" s="4">
+        <v>39698</v>
+      </c>
+      <c r="E76" s="4">
+        <v>39699</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4">
+        <v>39699</v>
+      </c>
+      <c r="D77" s="4">
+        <v>39700</v>
+      </c>
+      <c r="E77" s="4">
+        <v>39701</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4">
+        <v>39700</v>
+      </c>
+      <c r="D78" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E78" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4">
+        <v>39700</v>
+      </c>
+      <c r="D79" s="4">
+        <v>39701</v>
+      </c>
+      <c r="E79" s="4">
+        <v>39702</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCC99F0-9FF2-4389-875E-B0BE3FD080FD}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -11232,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -11393,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -11416,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -11531,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -11554,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -11577,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -11623,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -11669,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -11715,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -11738,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -11761,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -11830,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -11876,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -12014,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -12267,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -12336,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -12405,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -12497,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -12520,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -12566,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -12612,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>98</v>
       </c>
